--- a/src/assets/TraitedClaims2023-02.xlsx
+++ b/src/assets/TraitedClaims2023-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4eme_sem_2\PIDev Front\PHSET-FRONT\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B562155-BBBD-4A99-904B-A4E9C65E7609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE87A2D-6559-4493-BDA0-9C33A15B6A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,19 +77,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,11 +106,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,12 +425,12 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>83</v>
       </c>
@@ -491,7 +482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>84</v>
       </c>
@@ -514,7 +505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>85</v>
       </c>
@@ -533,7 +524,7 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
     </row>
